--- a/Từ khóa.xlsx
+++ b/Từ khóa.xlsx
@@ -1040,8 +1040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
